--- a/topo/allVNFList_copy.xlsx
+++ b/topo/allVNFList_copy.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0.62</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>0.54</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>0.54</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>0.52</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0.56000000000000005</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/topo/allVNFList_copy.xlsx
+++ b/topo/allVNFList_copy.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A26" sqref="A26:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,6 +1001,146 @@
         <v>5</v>
       </c>
       <c r="H25">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:D30" ca="1" si="0">RANDBETWEEN(1,50)</f>
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.9</v>
       </c>
     </row>
